--- a/medicine/Enfance/Festival_international_des_théâtres_pour_enfants_de_Banja_Luka/Festival_international_des_théâtres_pour_enfants_de_Banja_Luka.xlsx
+++ b/medicine/Enfance/Festival_international_des_théâtres_pour_enfants_de_Banja_Luka/Festival_international_des_théâtres_pour_enfants_de_Banja_Luka.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Festival_international_des_th%C3%A9%C3%A2tres_pour_enfants_de_Banja_Luka</t>
+          <t>Festival_international_des_théâtres_pour_enfants_de_Banja_Luka</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le Festival international des théâtres pour enfants de Banja Luka (en serbe cyrillique : Међународни фестивал позоришта за дјецу Бања Лука ; en serbe latin : Međunarodni festival pozorišta za djecu Banja Luka) est un festival de théâtre qui se déroule à Banja Luka, la capitale de la République serbe de Bosnie, en Bosnie-Herzégovine. Il a été créé en 2002 et est organisé par le Théâtre pour enfants de la République serbe[1].
+Le Festival international des théâtres pour enfants de Banja Luka (en serbe cyrillique : Међународни фестивал позоришта за дјецу Бања Лука ; en serbe latin : Međunarodni festival pozorišta za djecu Banja Luka) est un festival de théâtre qui se déroule à Banja Luka, la capitale de la République serbe de Bosnie, en Bosnie-Herzégovine. Il a été créé en 2002 et est organisé par le Théâtre pour enfants de la République serbe.
 Le Festival propose des spectacles de marionnettes.
 </t>
         </is>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Festival_international_des_th%C3%A9%C3%A2tres_pour_enfants_de_Banja_Luka</t>
+          <t>Festival_international_des_théâtres_pour_enfants_de_Banja_Luka</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,11 @@
           <t>Prix</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plusieurs prix sont distribués à l'issue du festival : le grand prix (pour le meilleur spectacle), prix de la meilleure mise en scène, le prix de la meilleure scénographie, 7 prix pour les acteurs et le prix du jury d'enfants[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plusieurs prix sont distribués à l'issue du festival : le grand prix (pour le meilleur spectacle), prix de la meilleure mise en scène, le prix de la meilleure scénographie, 7 prix pour les acteurs et le prix du jury d'enfants.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Festival_international_des_th%C3%A9%C3%A2tres_pour_enfants_de_Banja_Luka</t>
+          <t>Festival_international_des_théâtres_pour_enfants_de_Banja_Luka</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>2002</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>En 2002, les théâtres suivants ont participé au festival[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>En 2002, les théâtres suivants ont participé au festival :
 Théâtre pour les enfants et pour la jeunesse de Skopje, Macédoine
 Koko et Roko, Sofia, Bulgarie
 Théâtre de la jeunesse, Novi Sad, Serbie
@@ -568,7 +584,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Festival_international_des_th%C3%A9%C3%A2tres_pour_enfants_de_Banja_Luka</t>
+          <t>Festival_international_des_théâtres_pour_enfants_de_Banja_Luka</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -586,9 +602,11 @@
           <t>2009</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le Festival 2009 s'est déroulé du 10 au 15 octobre. Les théâtres suivants ont participé à la manifestation[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le Festival 2009 s'est déroulé du 10 au 15 octobre. Les théâtres suivants ont participé à la manifestation :
 Théâtre pour enfants de la République serbe, Banja Luka, Bosnie-Herzégovine
 Théâtre de papier, Nuremberg, Allemagne
 The Dream Theatre, Zikhron Yaakov, Israël
